--- a/target/classes/com/DemoHybridFramework/qa/testData/testdata.xlsx
+++ b/target/classes/com/DemoHybridFramework/qa/testData/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkumar97\eclipse-workspace\JavaPractices2\CoreJava_Project\DemoHybridFramework\src\main\java\com\DemoHybridFramework\qa\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7A06C-AFD1-4839-A7D0-27D5B936FFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8470FF5A-107D-4B44-8613-4ECA2FD0D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{A8EA480A-0046-4A14-832C-A4AA9E4E01FC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>browser</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>invalid</t>
-  </si>
-  <si>
-    <t>valid</t>
   </si>
   <si>
     <t>test@gmail.com</t>
@@ -614,10 +611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F06CA42-B816-4877-AC11-710B91E8616E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,18 +632,18 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -660,34 +657,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>123456</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F7CAFB2B-BB9F-4809-85B6-D70762548976}"/>
-    <hyperlink ref="A3:A4" r:id="rId2" display="shivshakti@gmail.com" xr:uid="{B3C53B2B-EEE6-421F-81C2-EADD76864DCB}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{B3CEBC04-A4EC-4F7B-8CCC-B29A9CB9FA8C}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{2D233806-4D61-48B1-A283-AA18425B6252}"/>
+    <hyperlink ref="A2" r:id="rId1" display="shivshakti@gmail.com" xr:uid="{B3C53B2B-EEE6-421F-81C2-EADD76864DCB}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B3CEBC04-A4EC-4F7B-8CCC-B29A9CB9FA8C}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{2D233806-4D61-48B1-A283-AA18425B6252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
